--- a/Replication Package/documentation/rider-audits/compliance-pilot/codebooks/mapping.xlsx
+++ b/Replication Package/documentation/rider-audits/compliance-pilot/codebooks/mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio_vagao_rosa\documentation\rider-audits\compliance-pilot\codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio-safe-space\Replication Package\documentation\rider-audits\compliance-pilot\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB47004-EE8A-4AA7-85E0-760CC725626D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6C6D9-ED29-444D-AC02-26A82A20EDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="151">
   <si>
     <t>name</t>
   </si>
@@ -231,9 +231,6 @@
     <t>station</t>
   </si>
   <si>
-    <t>station_bin</t>
-  </si>
-  <si>
     <t>label:current</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
   </si>
   <si>
     <t>police_present</t>
-  </si>
-  <si>
-    <t>Mapping - Station bin</t>
   </si>
   <si>
     <t>Mapping - Time bin</t>
@@ -829,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -860,16 +854,16 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
       <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
         <v>94</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -918,7 +912,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -944,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -958,7 +952,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -973,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -999,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -1025,7 +1019,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -1129,7 +1123,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
@@ -1155,7 +1149,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -1181,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
@@ -1207,7 +1201,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
@@ -1233,7 +1227,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -1259,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
@@ -1337,7 +1331,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
@@ -1363,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -1389,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
@@ -1415,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>
@@ -1441,7 +1435,7 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
@@ -1467,7 +1461,7 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
         <v>20</v>
@@ -1493,7 +1487,7 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
@@ -1519,7 +1513,7 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
         <v>20</v>
@@ -1545,7 +1539,7 @@
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
         <v>20</v>
@@ -1571,7 +1565,7 @@
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
@@ -1597,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
@@ -1623,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
@@ -1649,7 +1643,7 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
         <v>20</v>
@@ -1675,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
@@ -1701,7 +1695,7 @@
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
         <v>20</v>
@@ -1727,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s">
         <v>20</v>
@@ -1753,7 +1747,7 @@
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
         <v>20</v>
@@ -1779,7 +1773,7 @@
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s">
         <v>20</v>
@@ -1805,7 +1799,7 @@
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
@@ -1831,7 +1825,7 @@
         <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s">
         <v>20</v>
@@ -1857,7 +1851,7 @@
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s">
         <v>20</v>
@@ -1883,7 +1877,7 @@
         <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
@@ -1897,7 +1891,7 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
@@ -1912,7 +1906,7 @@
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s">
         <v>20</v>
@@ -1923,16 +1917,16 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
         <v>61</v>
@@ -1941,27 +1935,27 @@
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s">
         <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
         <v>62</v>
@@ -1970,27 +1964,27 @@
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
         <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
         <v>63</v>
@@ -1999,27 +1993,27 @@
         <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s">
         <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
         <v>64</v>
@@ -2028,21 +2022,21 @@
         <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s">
         <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
@@ -2057,27 +2051,27 @@
         <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s">
         <v>65</v>
       </c>
       <c r="I46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
         <v>66</v>
@@ -2086,13 +2080,13 @@
         <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s">
         <v>66</v>
       </c>
       <c r="I47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2100,13 +2094,13 @@
         <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
         <v>67</v>
@@ -2126,13 +2120,13 @@
         <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
         <v>68</v>
@@ -2147,35 +2141,6 @@
         <v>68</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2263,244 +2228,244 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
         <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
         <v>133</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
